--- a/syntax.xlsx
+++ b/syntax.xlsx
@@ -16,22 +16,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>[</t>
   </si>
   <si>
-    <t>workshop name</t>
-  </si>
-  <si>
-    <t>workshop blueprint header</t>
+    <t>group header</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group footer</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>static variable declaration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-static variable </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;integer&gt;</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>empty list</t>
+  </si>
+  <si>
+    <t>element types must match</t>
+  </si>
+  <si>
+    <t>'Hello World!'</t>
+  </si>
+  <si>
+    <t>&lt;float&gt;</t>
+  </si>
+  <si>
+    <t>&lt;type&gt;</t>
+  </si>
+  <si>
+    <t>&lt;static variable declaration&gt;</t>
+  </si>
+  <si>
+    <t>&lt;argument_list&gt;</t>
+  </si>
+  <si>
+    <t>return statement</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>populated list</t>
+  </si>
+  <si>
+    <t>&lt;first_value&gt;</t>
+  </si>
+  <si>
+    <t>[ , &lt;other_values&gt; ...]</t>
+  </si>
+  <si>
+    <t>all return statements must have matching type</t>
+  </si>
+  <si>
+    <t>static function header</t>
+  </si>
+  <si>
+    <t>non-static function header</t>
+  </si>
+  <si>
+    <t>&lt;static_function_header&gt;</t>
+  </si>
+  <si>
+    <t>loop header</t>
+  </si>
+  <si>
+    <t>&lt;conditional_stmt&gt;</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>continue</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>loop footer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,16 +141,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -56,14 +179,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,33 +593,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="3" customWidth="1"/>
+    <col min="5" max="20" width="20.7109375" style="3" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30">
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
